--- a/main/collected_data.xlsx
+++ b/main/collected_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aca19f81aa3e5f86/Economics/Github/german_population/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4DB114E441178AC67DF4A56611DD16683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B83D95D-4A6F-4D67-B8FE-3D25ADCA8AC0}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_AD4DB114E441178AC67DF4A56611DD16683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACA858ED-5480-456C-9E2F-58C256BF8E68}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="2916" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>2009 FORECAST V1-W2</t>
   </si>
@@ -49,16 +49,20 @@
   <si>
     <t>2022 FORECAST G2-L2-W2</t>
   </si>
+  <si>
+    <t>2006 forecast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="#\ ###\ ##0"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +80,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial MT"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MetaNormalLF-Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="MetaNormalLF-Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="MetaNormalLF-Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -98,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -121,13 +145,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -147,11 +220,38 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 11" xfId="2" xr:uid="{0E4D8758-8885-4FD0-873D-31EBD127D961}"/>
     <cellStyle name="Standard 3" xfId="1" xr:uid="{0CF8D773-57EC-4231-A793-8E7AED569F27}"/>
+    <cellStyle name="Standard_Variante_1_W1_Altenquotient" xfId="3" xr:uid="{1B8148D4-D93E-4730-AC51-542BDCD65B38}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -481,8 +581,18 @@
       <c r="O1" s="7">
         <v>83236.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="17">
+        <v>2005</v>
+      </c>
+      <c r="R1" s="18">
+        <v>82438</v>
+      </c>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" ht="16.8">
       <c r="A2" s="8"/>
       <c r="B2" s="3">
         <v>2020</v>
@@ -514,8 +624,16 @@
       <c r="O2" s="7">
         <v>84756.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="19">
+        <v>2010</v>
+      </c>
+      <c r="R2" s="18">
+        <v>81887</v>
+      </c>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" ht="16.8">
       <c r="A3" s="8"/>
       <c r="B3" s="3">
         <v>2030</v>
@@ -547,8 +665,16 @@
       <c r="O3" s="7">
         <v>85151.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="19">
+        <v>2020</v>
+      </c>
+      <c r="R3" s="18">
+        <v>80057</v>
+      </c>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.8">
       <c r="A4" s="8"/>
       <c r="B4" s="3">
         <v>2040</v>
@@ -580,8 +706,16 @@
       <c r="O4" s="7">
         <v>85083.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="19">
+        <v>2030</v>
+      </c>
+      <c r="R4" s="18">
+        <v>77203</v>
+      </c>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="8"/>
       <c r="B5" s="3">
         <v>2050</v>
@@ -613,8 +747,16 @@
       <c r="O5" s="7">
         <v>84853.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="8"/>
+      <c r="Q5" s="17">
+        <v>2040</v>
+      </c>
+      <c r="R5" s="18">
+        <v>73422</v>
+      </c>
+      <c r="S5" s="15"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="8"/>
       <c r="B6" s="4">
         <v>2060</v>
@@ -646,8 +788,15 @@
       <c r="O6" s="7">
         <v>84469.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="17">
+        <v>2050</v>
+      </c>
+      <c r="R6" s="18">
+        <v>68743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -667,8 +816,11 @@
       <c r="O7" s="7">
         <v>83961.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="8"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -688,8 +840,11 @@
       <c r="O8" s="7">
         <v>83402.600000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="8"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -709,8 +864,11 @@
       <c r="O9" s="7">
         <v>82942.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -730,8 +888,11 @@
       <c r="O10" s="7">
         <v>82702</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="8"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -751,6 +912,34 @@
       <c r="O11" s="7">
         <v>82599.8</v>
       </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="1:19" ht="16.8">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="17:19" ht="16.8">
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="17:19" ht="16.8">
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="17:19">
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
